--- a/output/fit_clients/fit_round_409.xlsx
+++ b/output/fit_clients/fit_round_409.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1609066467.838042</v>
+        <v>2341863560.694592</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09595600268792054</v>
+        <v>0.08751086720493731</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03589537113433235</v>
+        <v>0.03113056632015397</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>804533176.9895335</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2031397201.726013</v>
+        <v>2067735114.575168</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1288830097238539</v>
+        <v>0.1536451701788545</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04284500694028739</v>
+        <v>0.04826695919108296</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1015698645.797186</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4297242009.392732</v>
+        <v>3622886591.936348</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1039993597956478</v>
+        <v>0.1461818622598008</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02327425022011226</v>
+        <v>0.02318994846227555</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>148</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2148621039.948369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3644089157.660508</v>
+        <v>2954163787.488712</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07731620810299798</v>
+        <v>0.09270462464015385</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04034033381895449</v>
+        <v>0.04524912107393479</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>151</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1822044606.115813</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1876577947.695997</v>
+        <v>2318513448.167018</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09830823590275754</v>
+        <v>0.1197293688433916</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04805603753169184</v>
+        <v>0.05298921480306433</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>938289016.8157263</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2939519175.938014</v>
+        <v>1981242722.126015</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08212295985943277</v>
+        <v>0.07467569659352205</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04452501238603931</v>
+        <v>0.04180041622118844</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>128</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1469759558.684544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2655885335.664702</v>
+        <v>3130287700.661694</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1733747215194539</v>
+        <v>0.1667606081648067</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02396649500744414</v>
+        <v>0.02708579141089748</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>130</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1327942690.183005</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1803936071.208019</v>
+        <v>1810444438.327167</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1865846024542919</v>
+        <v>0.1723573414069728</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03050454960093863</v>
+        <v>0.03161657488171705</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>901968089.4333081</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5683326907.024488</v>
+        <v>5393648903.524928</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1931102877193994</v>
+        <v>0.1759675214934198</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05413112298974161</v>
+        <v>0.03349399567055189</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>172</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2841663605.722488</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3198604754.781553</v>
+        <v>3499111415.077116</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1778400342653058</v>
+        <v>0.1163576478188675</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04305166039552585</v>
+        <v>0.03021215333738279</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>169</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1599302334.170794</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2528646621.944743</v>
+        <v>2966663707.794394</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1713560769902621</v>
+        <v>0.1275639278490844</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04711924284779512</v>
+        <v>0.04742818934444892</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>138</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1264323285.838002</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4025992415.147152</v>
+        <v>4741992630.802727</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08118133345970723</v>
+        <v>0.06203041216868277</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02609116153913245</v>
+        <v>0.0221883455400085</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>137</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2012996261.197056</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3532804028.99911</v>
+        <v>3906580608.183414</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1676555446492807</v>
+        <v>0.175037255733127</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04272277016966695</v>
+        <v>0.0306968278731433</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>132</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1766402010.370373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1185943192.434649</v>
+        <v>1119491494.974256</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08915805448417748</v>
+        <v>0.08664002112480626</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03046257223584482</v>
+        <v>0.03013192162827252</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>592971610.5366583</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2781401246.543519</v>
+        <v>2678641053.002057</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08250105865171106</v>
+        <v>0.1097255363671356</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03333530275934456</v>
+        <v>0.03303373559970317</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>83</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1390700628.975839</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3929948577.833685</v>
+        <v>4591517077.764277</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1082069449193816</v>
+        <v>0.1572897734484207</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04142868833648976</v>
+        <v>0.04721886913903577</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>120</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1964974326.948743</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2503884473.20787</v>
+        <v>3688953026.193109</v>
       </c>
       <c r="F18" t="n">
-        <v>0.14115262021885</v>
+        <v>0.1728901146436285</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02832566071638352</v>
+        <v>0.02130132310852432</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>135</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1251942302.856174</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1259394640.550467</v>
+        <v>1355017109.897019</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1315129288007383</v>
+        <v>0.1244828168900528</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0173996208448062</v>
+        <v>0.01793738044964836</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>629697412.6996247</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2299790734.247732</v>
+        <v>2074813483.760303</v>
       </c>
       <c r="F20" t="n">
-        <v>0.146642541494781</v>
+        <v>0.09860282272739326</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02686744047497355</v>
+        <v>0.02330054025922233</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>55</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1149895361.563219</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1856025071.055602</v>
+        <v>2480930059.135012</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09548076085843785</v>
+        <v>0.08185497697701832</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02786635915953792</v>
+        <v>0.04103026540211338</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>928012585.2833537</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2877239566.943006</v>
+        <v>2878012238.322198</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09455838878709802</v>
+        <v>0.1116780871472487</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0508370300478511</v>
+        <v>0.04074479946025498</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>113</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1438619852.3707</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1401344849.777293</v>
+        <v>997148938.4418205</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1121764388532416</v>
+        <v>0.186164212619049</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03533159973030003</v>
+        <v>0.05446556018524849</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>700672427.4717332</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2553343021.521771</v>
+        <v>3060764474.222305</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1133785032900001</v>
+        <v>0.1210815842777472</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02680401488810417</v>
+        <v>0.02884708798767104</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>121</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1276671576.04813</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1143954409.246823</v>
+        <v>1445149519.233848</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09690662128661122</v>
+        <v>0.115867847033701</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02343143147454137</v>
+        <v>0.0213419616898153</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>571977235.4945434</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1128918973.603319</v>
+        <v>1446984470.568305</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0926277542708152</v>
+        <v>0.1118633404965049</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02852750001264025</v>
+        <v>0.03616910975000191</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>564459490.4255737</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3327779524.134668</v>
+        <v>3010540198.917761</v>
       </c>
       <c r="F27" t="n">
-        <v>0.154723693520613</v>
+        <v>0.09792008581306347</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02143898796726214</v>
+        <v>0.01904710850763897</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1663889805.612262</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2920808952.022474</v>
+        <v>3396280933.238379</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1429959179007919</v>
+        <v>0.1125203915082208</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03629983541781301</v>
+        <v>0.03776747942676695</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1460404480.402823</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4315046492.691602</v>
+        <v>5912940593.780878</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1455145720731449</v>
+        <v>0.09919473280460128</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02946384082350805</v>
+        <v>0.03709207574898007</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>180</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2157523241.360865</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2139322589.891568</v>
+        <v>1722205925.136353</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1274114709932624</v>
+        <v>0.1020949261949379</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0331265493883792</v>
+        <v>0.02466425218270035</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1069661348.26368</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1369306718.723522</v>
+        <v>1434944242.627141</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07832166351331785</v>
+        <v>0.09107223878500666</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03870765760165441</v>
+        <v>0.04458444919212735</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>684653270.9791175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1289882536.90722</v>
+        <v>1293875675.646798</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1096541016521862</v>
+        <v>0.09092245947983182</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03269562041023967</v>
+        <v>0.03539761041641553</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>644941293.2840971</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2016210176.807749</v>
+        <v>3113517086.616627</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1291175773009859</v>
+        <v>0.1744683108024686</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04579083684940595</v>
+        <v>0.03685639999925937</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>123</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1008105167.850886</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1416328661.471027</v>
+        <v>1151005825.45541</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0919704744809529</v>
+        <v>0.09471875627737565</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02109951117876287</v>
+        <v>0.01756225727865304</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>708164300.2996986</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1303812402.400653</v>
+        <v>882001156.7632802</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09228300264881202</v>
+        <v>0.1137526562889543</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03366943937284189</v>
+        <v>0.04424861312995811</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>651906153.1731497</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2018881788.587076</v>
+        <v>2530741577.841052</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1565720487588256</v>
+        <v>0.1418801265753704</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02156085179197934</v>
+        <v>0.02614582888766934</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>103</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1009440954.834934</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1879310957.372805</v>
+        <v>2759438123.375257</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07247697319942192</v>
+        <v>0.0936396502242061</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03219327556075025</v>
+        <v>0.02930718895367158</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>111</v>
-      </c>
-      <c r="J37" t="n">
-        <v>939655489.4163986</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1331816091.766691</v>
+        <v>1748720537.472685</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09747209983362838</v>
+        <v>0.09460838037812824</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02467431967290574</v>
+        <v>0.02487980437315533</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>665908118.9122585</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1402843517.676774</v>
+        <v>1939578731.50264</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1760457703998355</v>
+        <v>0.1705981775197559</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02904409173390464</v>
+        <v>0.02088035931110663</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>701421844.0433841</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1660546269.725226</v>
+        <v>1691471763.436804</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1366881352422273</v>
+        <v>0.1070180766009166</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04287470872313712</v>
+        <v>0.05024907553511281</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>830273060.8946164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2474350096.31444</v>
+        <v>2768926021.300721</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1209256736437019</v>
+        <v>0.1411867830624976</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03254673958729668</v>
+        <v>0.04291862168211213</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1237175075.928791</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3542915664.63047</v>
+        <v>4215922259.163391</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0856528736765149</v>
+        <v>0.1127372317829897</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03975219678296325</v>
+        <v>0.04401183995645874</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1771457830.133583</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2656920705.289216</v>
+        <v>1959245978.011638</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1481061786716005</v>
+        <v>0.125048063994073</v>
       </c>
       <c r="G43" t="n">
-        <v>0.017163500280242</v>
+        <v>0.02399311010335257</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>142</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1328460385.54899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2021466682.314092</v>
+        <v>2242613923.386024</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09670812992445246</v>
+        <v>0.09721593429931416</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02442942360166945</v>
+        <v>0.02486012279788242</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1010733451.780824</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1779058097.401578</v>
+        <v>1697723710.409677</v>
       </c>
       <c r="F45" t="n">
-        <v>0.137170736214927</v>
+        <v>0.141345661686921</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05328174957342657</v>
+        <v>0.05304387225970142</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>889529017.3543071</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5204454231.986257</v>
+        <v>3491698336.824754</v>
       </c>
       <c r="F46" t="n">
-        <v>0.144431171290264</v>
+        <v>0.1132128267740854</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05414414757706152</v>
+        <v>0.04037592891851692</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>145</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2602227154.512205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4960144148.805379</v>
+        <v>3337084014.397806</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1384708064009766</v>
+        <v>0.1431520133857641</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05190731164829104</v>
+        <v>0.05644455602019465</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>110</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2480072127.961701</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3352485949.48841</v>
+        <v>4389294912.659228</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1018559811193219</v>
+        <v>0.09191846397178785</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02858985690972345</v>
+        <v>0.03651532907378539</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>133</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1676243046.749918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1473591775.104899</v>
+        <v>1829766871.740506</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1425884858947893</v>
+        <v>0.1339796999159559</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0434984455910187</v>
+        <v>0.03178597052539961</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>736795923.685708</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3161616183.720445</v>
+        <v>2718793418.20178</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1076359475007423</v>
+        <v>0.1339322995784857</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05032416725998461</v>
+        <v>0.05285248646049861</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>139</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1580808140.199283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1130539558.994059</v>
+        <v>1198388502.222081</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1927857782702704</v>
+        <v>0.1667720216721334</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03417327746398565</v>
+        <v>0.0433039926631483</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>565269842.3199462</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3533662956.903981</v>
+        <v>5306918016.289443</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09687251460990849</v>
+        <v>0.125433942514456</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04313916443464044</v>
+        <v>0.05913207337246094</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>168</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1766831562.389188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2694965160.617378</v>
+        <v>2489274881.499145</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1903684153036539</v>
+        <v>0.1702720999564248</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02840983762276014</v>
+        <v>0.02400812701024278</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>117</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1347482633.842803</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3727096142.432434</v>
+        <v>4982203035.674124</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1201949904994043</v>
+        <v>0.1174977055045638</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04870534276015193</v>
+        <v>0.04672476898379362</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>132</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1863548113.872129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3773947239.175062</v>
+        <v>4843594756.690765</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1817285919008604</v>
+        <v>0.1898737992985406</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02075878793337849</v>
+        <v>0.02168042366595293</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1886973584.53621</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1807945905.78221</v>
+        <v>1420378729.715859</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1489025594036933</v>
+        <v>0.1423503398957403</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04212051567053384</v>
+        <v>0.05390382324893517</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>903972949.5108403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3148660908.186327</v>
+        <v>3286996758.264345</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1340848288775875</v>
+        <v>0.1645667509307299</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01963460984174958</v>
+        <v>0.01844385006691061</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>130</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1574330470.995646</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1787242794.85117</v>
+        <v>1888226607.630254</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1447862150374807</v>
+        <v>0.1958542268982614</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02678456830896506</v>
+        <v>0.02924919718297233</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>893621402.3609515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4342794768.33902</v>
+        <v>3313646757.862139</v>
       </c>
       <c r="F59" t="n">
-        <v>0.114583260328713</v>
+        <v>0.124583192844932</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0402429969285891</v>
+        <v>0.03346455838022278</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>113</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2171397343.601952</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2526046893.437073</v>
+        <v>2295492359.05208</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1988352699923678</v>
+        <v>0.1373330591137804</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02645236988137037</v>
+        <v>0.02559942211789796</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>128</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1263023467.369877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3045357953.145541</v>
+        <v>2363667046.023733</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1805264512553544</v>
+        <v>0.1158593084514817</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03156145147348203</v>
+        <v>0.03292598257749899</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>141</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1522678952.778521</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1554156602.473555</v>
+        <v>1443472801.581084</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1192200217596791</v>
+        <v>0.1198722077991621</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04724261623628179</v>
+        <v>0.04735377388479302</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>777078292.4530122</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3488316174.881358</v>
+        <v>4150399292.996332</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09968360282768889</v>
+        <v>0.07897903623622546</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03597241961635216</v>
+        <v>0.03901368624855517</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1744158172.698581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4908379768.948023</v>
+        <v>4997783201.737758</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1156931373642218</v>
+        <v>0.139607665828747</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02514126130286773</v>
+        <v>0.03146550589181218</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>127</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2454189984.233312</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4422236673.19251</v>
+        <v>3925383410.112882</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1150073315617262</v>
+        <v>0.1636311886315471</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02764973348134554</v>
+        <v>0.02569625033958424</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>147</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2211118329.986916</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4880291425.26918</v>
+        <v>5024301478.715295</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1440959728641177</v>
+        <v>0.1413572715248351</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04459089022670416</v>
+        <v>0.03774449751642162</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>119</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2440145733.434155</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3298467310.220701</v>
+        <v>2414127806.891103</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09320638744124156</v>
+        <v>0.06344335746518233</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0428546110188224</v>
+        <v>0.05000776108970037</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>131</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1649233648.12215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5876488033.46856</v>
+        <v>5290754003.551763</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1536751062913555</v>
+        <v>0.1262206745623543</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0480727321281374</v>
+        <v>0.04223673150843591</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>132</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2938244126.263022</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1727308337.693265</v>
+        <v>1586965220.769627</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1405569571560459</v>
+        <v>0.1818245686028249</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04143261075510191</v>
+        <v>0.05824873113606618</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>863654138.5456352</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3226256608.924905</v>
+        <v>3051447191.601429</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09435504093205653</v>
+        <v>0.07376034904028005</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03259941415831588</v>
+        <v>0.03566941624072971</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>116</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1613128296.150944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5430604407.311463</v>
+        <v>5408126810.832058</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1603918028656159</v>
+        <v>0.1380714851914063</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02546677293663431</v>
+        <v>0.03207431437094986</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>149</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2715302341.507417</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1600015247.585565</v>
+        <v>1901046890.968722</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07391672909228529</v>
+        <v>0.07890521506175396</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05090567774168955</v>
+        <v>0.0381609415343164</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>800007634.6709629</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2230738490.480815</v>
+        <v>3594460580.980876</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09734321867294879</v>
+        <v>0.08192528434903611</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0439585405805334</v>
+        <v>0.05070366670066449</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>156</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1115369311.690828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3450398060.903388</v>
+        <v>2757754696.328497</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1556603928684522</v>
+        <v>0.1560479123483924</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02697206031204166</v>
+        <v>0.03006904673489364</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>139</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1725199056.89529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2282138141.502655</v>
+        <v>1845991895.380832</v>
       </c>
       <c r="F75" t="n">
-        <v>0.146634967056445</v>
+        <v>0.1559772785374025</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03097663606791157</v>
+        <v>0.03634411129067966</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1141069008.567033</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4414870411.510886</v>
+        <v>4785322753.826957</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08041595171107147</v>
+        <v>0.08571928458498547</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02685426692612879</v>
+        <v>0.03227210300818496</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2207435207.906341</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1620888754.833755</v>
+        <v>2016396314.184403</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1566780412058792</v>
+        <v>0.1822213171582049</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02701861727957973</v>
+        <v>0.02859528104621244</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>810444382.9626594</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3015464176.401041</v>
+        <v>3177773894.601389</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1366382842117773</v>
+        <v>0.102664802222589</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05649431760316753</v>
+        <v>0.05372786725534497</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>142</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1507732124.417247</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1787066386.89736</v>
+        <v>1193887750.271202</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1699972598336147</v>
+        <v>0.1471849532920013</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03166837268967866</v>
+        <v>0.04076777322501255</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>893533277.882916</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5286292864.130908</v>
+        <v>3588257043.475517</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07064742824658313</v>
+        <v>0.08247863671103647</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03784074753741159</v>
+        <v>0.02885913989061879</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>86</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2643146495.529078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3147082333.030333</v>
+        <v>4523899614.840899</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1160910315826829</v>
+        <v>0.1360151770596074</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02454591849017248</v>
+        <v>0.02439204698482505</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>93</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1573541098.082764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4078221760.136946</v>
+        <v>5621463985.100398</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1773705184038664</v>
+        <v>0.2078738159621097</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02822175930818756</v>
+        <v>0.02815974691488373</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>144</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2039110915.472373</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2106987918.302474</v>
+        <v>1813935045.637194</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1266678462601872</v>
+        <v>0.145897441570798</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03145077314094417</v>
+        <v>0.04282639609004179</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1053493957.76212</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2090225386.457242</v>
+        <v>2506346271.788756</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1093275448452489</v>
+        <v>0.07638648054538605</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0345880315021868</v>
+        <v>0.05235551882918719</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1045112685.043517</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3214286380.629518</v>
+        <v>3012767735.407838</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1692989007269571</v>
+        <v>0.1539503027298022</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03467160426195318</v>
+        <v>0.03518312105239001</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>154</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1607143274.126816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2405002221.466939</v>
+        <v>2634841099.343124</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1498214731442836</v>
+        <v>0.1560217606015663</v>
       </c>
       <c r="G86" t="n">
-        <v>0.024588325215588</v>
+        <v>0.02442906709699703</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1202501194.681485</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1206435336.998715</v>
+        <v>1095707986.573017</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1739223215944745</v>
+        <v>0.1702410200562363</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0294301003040266</v>
+        <v>0.03106816711931801</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>603217725.7401481</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2860750660.454744</v>
+        <v>2547250305.343423</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1577402558890079</v>
+        <v>0.1619387485587242</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0284963528673064</v>
+        <v>0.03668744479408283</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>161</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1430375346.922187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2817063997.014894</v>
+        <v>3339724462.319957</v>
       </c>
       <c r="F89" t="n">
-        <v>0.135118276471711</v>
+        <v>0.1312350620547462</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03251878099156703</v>
+        <v>0.02970367907038468</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>138</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1408532050.031172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1935035047.651554</v>
+        <v>1566003848.335304</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09001244570053799</v>
+        <v>0.1203610853421862</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04896539334900765</v>
+        <v>0.04447127916235279</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>967517582.1669215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1395274308.519933</v>
+        <v>1342003662.029068</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1447333609136403</v>
+        <v>0.1467342849512877</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05354981736566614</v>
+        <v>0.04336347041600232</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>697637207.1768315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2098488605.963593</v>
+        <v>2196653511.077957</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08681988817310196</v>
+        <v>0.06921455521147422</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04636517397608598</v>
+        <v>0.03393497406774338</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>118</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1049244256.603948</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4616683035.027362</v>
+        <v>3784701678.264216</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09276957594341877</v>
+        <v>0.1391843519443276</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04889480848265259</v>
+        <v>0.04557432311146731</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2308341478.268623</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2169937766.569868</v>
+        <v>1894935488.915868</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1471788007070378</v>
+        <v>0.1035363971282325</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03451844525000616</v>
+        <v>0.04192436064574171</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1084968903.756528</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2863044824.378205</v>
+        <v>2268673796.137803</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1277354133292843</v>
+        <v>0.1268351505950215</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03985865217221176</v>
+        <v>0.03623229569535506</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>99</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1431522421.875613</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1787229974.68572</v>
+        <v>1538990182.798003</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1257626912386162</v>
+        <v>0.1358447818496822</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0351421538786495</v>
+        <v>0.03562688927835361</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>893614997.0386807</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5075686761.858952</v>
+        <v>4117684314.618819</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1656087655556034</v>
+        <v>0.1213684391857173</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02715849511801495</v>
+        <v>0.02005384169397991</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>131</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2537843523.832853</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2812138973.800828</v>
+        <v>2982299415.053996</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0893005387045351</v>
+        <v>0.1034967695559203</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02255076691908858</v>
+        <v>0.02489848750300776</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1406069458.854248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3098370572.072837</v>
+        <v>2139293553.70066</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1194447620568062</v>
+        <v>0.1354617969280287</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02196035505259917</v>
+        <v>0.02593199946809271</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>129</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1549185279.135475</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4807795195.546047</v>
+        <v>3704802688.832583</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1118341434750424</v>
+        <v>0.1787334492541063</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02073773436179734</v>
+        <v>0.0271329533476637</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>125</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2403897732.954426</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2416721112.311656</v>
+        <v>3253234772.860061</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1595713257879578</v>
+        <v>0.1669282373882262</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04276904613689948</v>
+        <v>0.0493070209380076</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>165</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1208360568.132737</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_409.xlsx
+++ b/output/fit_clients/fit_round_409.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2341863560.694592</v>
+        <v>1575091835.476811</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08751086720493731</v>
+        <v>0.07900287323689952</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03113056632015397</v>
+        <v>0.03423847939365575</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2067735114.575168</v>
+        <v>2189863591.635762</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1536451701788545</v>
+        <v>0.1724026309257728</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04826695919108296</v>
+        <v>0.04269108591972324</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3622886591.936348</v>
+        <v>4252946214.133132</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1461818622598008</v>
+        <v>0.1227467173387295</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02318994846227555</v>
+        <v>0.02438986935424867</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2954163787.488712</v>
+        <v>3406586471.272761</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09270462464015385</v>
+        <v>0.1094843166473283</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04524912107393479</v>
+        <v>0.03906061494045585</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2318513448.167018</v>
+        <v>2683222561.256762</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1197293688433916</v>
+        <v>0.1410203846926668</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05298921480306433</v>
+        <v>0.03794006519010244</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1981242722.126015</v>
+        <v>2844681843.814891</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07467569659352205</v>
+        <v>0.08092318650289797</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04180041622118844</v>
+        <v>0.03548759266649896</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3130287700.661694</v>
+        <v>2487990318.067009</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1667606081648067</v>
+        <v>0.1442222180740392</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02708579141089748</v>
+        <v>0.0215159923550341</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1810444438.327167</v>
+        <v>1746722069.355757</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1723573414069728</v>
+        <v>0.1659709466758477</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03161657488171705</v>
+        <v>0.02707567689885331</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5393648903.524928</v>
+        <v>5590371056.857046</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1759675214934198</v>
+        <v>0.1761165501836672</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03349399567055189</v>
+        <v>0.03572265711572337</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3499111415.077116</v>
+        <v>4128265780.085524</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1163576478188675</v>
+        <v>0.131243974408841</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03021215333738279</v>
+        <v>0.04488968489920373</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2966663707.794394</v>
+        <v>2618101041.372329</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1275639278490844</v>
+        <v>0.1783176952535557</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04742818934444892</v>
+        <v>0.05288714228854814</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4741992630.802727</v>
+        <v>4327719646.964862</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06203041216868277</v>
+        <v>0.06773635305486281</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0221883455400085</v>
+        <v>0.02916562607398467</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3906580608.183414</v>
+        <v>3708237343.658412</v>
       </c>
       <c r="F14" t="n">
-        <v>0.175037255733127</v>
+        <v>0.1249979692872766</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0306968278731433</v>
+        <v>0.03881773345482535</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1119491494.974256</v>
+        <v>1630871592.07452</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08664002112480626</v>
+        <v>0.09551347553784201</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03013192162827252</v>
+        <v>0.03874590342080603</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2678641053.002057</v>
+        <v>2484172156.955579</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1097255363671356</v>
+        <v>0.08472389343682152</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03303373559970317</v>
+        <v>0.04511489772546919</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4591517077.764277</v>
+        <v>3332177636.615119</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1572897734484207</v>
+        <v>0.160844360235062</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04721886913903577</v>
+        <v>0.04799818314930571</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3688953026.193109</v>
+        <v>3149846099.723143</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1728901146436285</v>
+        <v>0.1458622305477433</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02130132310852432</v>
+        <v>0.02569834781444178</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1355017109.897019</v>
+        <v>933340839.2312363</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1244828168900528</v>
+        <v>0.1228472694434933</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01793738044964836</v>
+        <v>0.02702478296418121</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2074813483.760303</v>
+        <v>2461987891.76108</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09860282272739326</v>
+        <v>0.1290714041220697</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02330054025922233</v>
+        <v>0.03153411018441245</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2480930059.135012</v>
+        <v>2413379825.111613</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08185497697701832</v>
+        <v>0.07855855147076737</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04103026540211338</v>
+        <v>0.02916833298863575</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2878012238.322198</v>
+        <v>2738399208.09348</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1116780871472487</v>
+        <v>0.1035049002961433</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04074479946025498</v>
+        <v>0.05123297256012178</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>997148938.4418205</v>
+        <v>1168944050.957068</v>
       </c>
       <c r="F23" t="n">
-        <v>0.186164212619049</v>
+        <v>0.1741889495181947</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05446556018524849</v>
+        <v>0.05403679660997036</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3060764474.222305</v>
+        <v>2985294841.752657</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1210815842777472</v>
+        <v>0.1061823108821039</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02884708798767104</v>
+        <v>0.02654031704837669</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1445149519.233848</v>
+        <v>1302798047.581884</v>
       </c>
       <c r="F25" t="n">
-        <v>0.115867847033701</v>
+        <v>0.1129570878571508</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0213419616898153</v>
+        <v>0.02671710789677704</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1446984470.568305</v>
+        <v>1297768803.000249</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1118633404965049</v>
+        <v>0.1127863896557886</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03616910975000191</v>
+        <v>0.03123466128830477</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3010540198.917761</v>
+        <v>3536910698.308133</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09792008581306347</v>
+        <v>0.1190951258810074</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01904710850763897</v>
+        <v>0.0258424834835573</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3396280933.238379</v>
+        <v>2777219838.859402</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1125203915082208</v>
+        <v>0.1280945541967644</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03776747942676695</v>
+        <v>0.03206209381267348</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5912940593.780878</v>
+        <v>4030035198.984389</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09919473280460128</v>
+        <v>0.1435115131953222</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03709207574898007</v>
+        <v>0.03733099276166574</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1722205925.136353</v>
+        <v>1525495811.480155</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1020949261949379</v>
+        <v>0.1319671330419641</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02466425218270035</v>
+        <v>0.02905406272625759</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1434944242.627141</v>
+        <v>1012014537.832145</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09107223878500666</v>
+        <v>0.07406160077379009</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04458444919212735</v>
+        <v>0.03834530524940261</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1293875675.646798</v>
+        <v>1220017724.41876</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09092245947983182</v>
+        <v>0.09809882241483793</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03539761041641553</v>
+        <v>0.02385120842318585</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3113517086.616627</v>
+        <v>2272112915.285055</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1744683108024686</v>
+        <v>0.1984414033869608</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03685639999925937</v>
+        <v>0.0369242625665596</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1151005825.45541</v>
+        <v>970553455.4555305</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09471875627737565</v>
+        <v>0.0763518825172232</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01756225727865304</v>
+        <v>0.01796913803013087</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>882001156.7632802</v>
+        <v>1009694773.093018</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1137526562889543</v>
+        <v>0.08110796872800485</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04424861312995811</v>
+        <v>0.03918647010672902</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2530741577.841052</v>
+        <v>1978510527.28948</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1418801265753704</v>
+        <v>0.1734240853995066</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02614582888766934</v>
+        <v>0.01801592668584392</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2759438123.375257</v>
+        <v>2072834983.4785</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0936396502242061</v>
+        <v>0.1076825643418251</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02930718895367158</v>
+        <v>0.02586935327302601</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1748720537.472685</v>
+        <v>1419706734.953795</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09460838037812824</v>
+        <v>0.1118059505941356</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02487980437315533</v>
+        <v>0.03983777993048238</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1939578731.50264</v>
+        <v>2201628392.518837</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1705981775197559</v>
+        <v>0.179209725916762</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02088035931110663</v>
+        <v>0.02629375834783357</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1691471763.436804</v>
+        <v>1333491275.257015</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1070180766009166</v>
+        <v>0.1188288778089186</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05024907553511281</v>
+        <v>0.05253105452220821</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2768926021.300721</v>
+        <v>2554822936.917095</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1411867830624976</v>
+        <v>0.1402280313128907</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04291862168211213</v>
+        <v>0.03215046704280864</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4215922259.163391</v>
+        <v>2767038421.85732</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1127372317829897</v>
+        <v>0.09618915432086919</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04401183995645874</v>
+        <v>0.04182585628852196</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1959245978.011638</v>
+        <v>2629875926.098774</v>
       </c>
       <c r="F43" t="n">
-        <v>0.125048063994073</v>
+        <v>0.202405549019955</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02399311010335257</v>
+        <v>0.01726855145221242</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2242613923.386024</v>
+        <v>1915035396.853194</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09721593429931416</v>
+        <v>0.08549761502720764</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02486012279788242</v>
+        <v>0.02632871296436583</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1697723710.409677</v>
+        <v>2369678297.284987</v>
       </c>
       <c r="F45" t="n">
-        <v>0.141345661686921</v>
+        <v>0.1471998738770302</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05304387225970142</v>
+        <v>0.04817761385249068</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3491698336.824754</v>
+        <v>3811404386.353009</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1132128267740854</v>
+        <v>0.1197564230077977</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04037592891851692</v>
+        <v>0.05515010782031788</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3337084014.397806</v>
+        <v>4542733870.198241</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1431520133857641</v>
+        <v>0.1707236082630245</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05644455602019465</v>
+        <v>0.05549485177390601</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4389294912.659228</v>
+        <v>3873261311.770846</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09191846397178785</v>
+        <v>0.07002223788026427</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03651532907378539</v>
+        <v>0.03061724585283016</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1829766871.740506</v>
+        <v>1300587138.735307</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1339796999159559</v>
+        <v>0.1349918624206889</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03178597052539961</v>
+        <v>0.02922123888729994</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2718793418.20178</v>
+        <v>4108739511.581882</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1339322995784857</v>
+        <v>0.1649004650257054</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05285248646049861</v>
+        <v>0.03552722049127728</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1198388502.222081</v>
+        <v>1289788792.448504</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1667720216721334</v>
+        <v>0.1347234253880116</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0433039926631483</v>
+        <v>0.04012595973496503</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5306918016.289443</v>
+        <v>3221425069.84875</v>
       </c>
       <c r="F52" t="n">
-        <v>0.125433942514456</v>
+        <v>0.1024822070015613</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05913207337246094</v>
+        <v>0.0579970385862418</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2489274881.499145</v>
+        <v>2582589042.950194</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1702720999564248</v>
+        <v>0.2000542260685133</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02400812701024278</v>
+        <v>0.0292667086485833</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4982203035.674124</v>
+        <v>4446881355.423985</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1174977055045638</v>
+        <v>0.1342585291549558</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04672476898379362</v>
+        <v>0.04859897726232332</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4843594756.690765</v>
+        <v>3250023464.198681</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1898737992985406</v>
+        <v>0.2148661990782866</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02168042366595293</v>
+        <v>0.02606677605935526</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1420378729.715859</v>
+        <v>1666349949.989343</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1423503398957403</v>
+        <v>0.1399290757871119</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05390382324893517</v>
+        <v>0.05267772774895087</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3286996758.264345</v>
+        <v>4243402275.195529</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1645667509307299</v>
+        <v>0.153452463314921</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01844385006691061</v>
+        <v>0.01668695003390871</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1888226607.630254</v>
+        <v>1322096920.364983</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1958542268982614</v>
+        <v>0.1774883144381321</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02924919718297233</v>
+        <v>0.03035945180264091</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3313646757.862139</v>
+        <v>5010415847.723007</v>
       </c>
       <c r="F59" t="n">
-        <v>0.124583192844932</v>
+        <v>0.1177812554470356</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03346455838022278</v>
+        <v>0.04899952635708368</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2295492359.05208</v>
+        <v>2864600831.335701</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1373330591137804</v>
+        <v>0.1654968952306002</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02559942211789796</v>
+        <v>0.0251721935606409</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2363667046.023733</v>
+        <v>2277847455.167995</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1158593084514817</v>
+        <v>0.1586102463917726</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03292598257749899</v>
+        <v>0.03240246650703447</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1443472801.581084</v>
+        <v>1747365575.319677</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1198722077991621</v>
+        <v>0.1939973669538204</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04735377388479302</v>
+        <v>0.03405436869015135</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4150399292.996332</v>
+        <v>3913460384.680728</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07897903623622546</v>
+        <v>0.1058640488515038</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03901368624855517</v>
+        <v>0.04413996819414048</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4997783201.737758</v>
+        <v>5264172655.177734</v>
       </c>
       <c r="F64" t="n">
-        <v>0.139607665828747</v>
+        <v>0.1564028443647882</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03146550589181218</v>
+        <v>0.03486242442473741</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3925383410.112882</v>
+        <v>3952842653.489655</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1636311886315471</v>
+        <v>0.114486217983464</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02569625033958424</v>
+        <v>0.02980076170182676</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5024301478.715295</v>
+        <v>4359492053.863216</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1413572715248351</v>
+        <v>0.1592083485868667</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03774449751642162</v>
+        <v>0.04096096766795168</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2414127806.891103</v>
+        <v>2177520668.906997</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06344335746518233</v>
+        <v>0.08538040297824792</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05000776108970037</v>
+        <v>0.03281454222533531</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5290754003.551763</v>
+        <v>4199986533.287121</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1262206745623543</v>
+        <v>0.1104833530661463</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04223673150843591</v>
+        <v>0.04902037268191759</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1586965220.769627</v>
+        <v>1993269380.2058</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1818245686028249</v>
+        <v>0.1109649646712281</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05824873113606618</v>
+        <v>0.045647517593339</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3051447191.601429</v>
+        <v>3691609853.549022</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07376034904028005</v>
+        <v>0.09787769403064554</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03566941624072971</v>
+        <v>0.0367087782734539</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5408126810.832058</v>
+        <v>5231523691.999574</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1380714851914063</v>
+        <v>0.1794761943171465</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03207431437094986</v>
+        <v>0.03150221508656437</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1901046890.968722</v>
+        <v>1606452960.076165</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07890521506175396</v>
+        <v>0.07768550148436605</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0381609415343164</v>
+        <v>0.03778763425215776</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3594460580.980876</v>
+        <v>3470972609.060876</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08192528434903611</v>
+        <v>0.107021571260506</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05070366670066449</v>
+        <v>0.04936089584569135</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2757754696.328497</v>
+        <v>3593470074.185151</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1560479123483924</v>
+        <v>0.1497345048332679</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03006904673489364</v>
+        <v>0.02638726773687233</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1845991895.380832</v>
+        <v>2044407425.735276</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1559772785374025</v>
+        <v>0.1503034470675145</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03634411129067966</v>
+        <v>0.03389293543034718</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4785322753.826957</v>
+        <v>3529419803.43173</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08571928458498547</v>
+        <v>0.1095881141349873</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03227210300818496</v>
+        <v>0.0221029867748946</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2016396314.184403</v>
+        <v>1568384860.083284</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1822213171582049</v>
+        <v>0.1171633286200499</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02859528104621244</v>
+        <v>0.02248199923011512</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3177773894.601389</v>
+        <v>4291061093.188723</v>
       </c>
       <c r="F78" t="n">
-        <v>0.102664802222589</v>
+        <v>0.08991381531432814</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05372786725534497</v>
+        <v>0.04552402184682994</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1193887750.271202</v>
+        <v>1526010726.22958</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1471849532920013</v>
+        <v>0.1573651628156089</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04076777322501255</v>
+        <v>0.02675415836144042</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3588257043.475517</v>
+        <v>3774180666.895328</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08247863671103647</v>
+        <v>0.07760219572621981</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02885913989061879</v>
+        <v>0.02647214616288431</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4523899614.840899</v>
+        <v>3996301619.279105</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1360151770596074</v>
+        <v>0.09649297080159507</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02439204698482505</v>
+        <v>0.0224976093111988</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5621463985.100398</v>
+        <v>4644460808.233451</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2078738159621097</v>
+        <v>0.1953945304872776</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02815974691488373</v>
+        <v>0.02192097568567437</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1813935045.637194</v>
+        <v>2111359508.481721</v>
       </c>
       <c r="F83" t="n">
-        <v>0.145897441570798</v>
+        <v>0.1577047730249509</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04282639609004179</v>
+        <v>0.03758064242760931</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2506346271.788756</v>
+        <v>1993806129.950927</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07638648054538605</v>
+        <v>0.0777421849872148</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05235551882918719</v>
+        <v>0.04819099548300051</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3012767735.407838</v>
+        <v>3459401010.090245</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1539503027298022</v>
+        <v>0.1694280860246447</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03518312105239001</v>
+        <v>0.05085790517873312</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2634841099.343124</v>
+        <v>2037562506.522771</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1560217606015663</v>
+        <v>0.1574712860793042</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02442906709699703</v>
+        <v>0.02413495770417538</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1095707986.573017</v>
+        <v>943460359.8082209</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1702410200562363</v>
+        <v>0.1755697549775414</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03106816711931801</v>
+        <v>0.03664766936388596</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2547250305.343423</v>
+        <v>3518173445.729846</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1619387485587242</v>
+        <v>0.1665914674670172</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03668744479408283</v>
+        <v>0.03003318030837249</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3339724462.319957</v>
+        <v>3194425625.571187</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1312350620547462</v>
+        <v>0.1019059550432552</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02970367907038468</v>
+        <v>0.03423836400696195</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1566003848.335304</v>
+        <v>1587203578.982075</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1203610853421862</v>
+        <v>0.09152861431604481</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04447127916235279</v>
+        <v>0.03652389731250215</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1342003662.029068</v>
+        <v>1620377907.409843</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1467342849512877</v>
+        <v>0.1222486734333957</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04336347041600232</v>
+        <v>0.03741175672401998</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2196653511.077957</v>
+        <v>2556274758.291317</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06921455521147422</v>
+        <v>0.1010784096537495</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03393497406774338</v>
+        <v>0.03711786386663766</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3784701678.264216</v>
+        <v>4198255550.424191</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1391843519443276</v>
+        <v>0.1166635632561109</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04557432311146731</v>
+        <v>0.04928397011728814</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1894935488.915868</v>
+        <v>2470927527.340901</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1035363971282325</v>
+        <v>0.1413598229206273</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04192436064574171</v>
+        <v>0.03485770243198098</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2268673796.137803</v>
+        <v>2785686458.686955</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1268351505950215</v>
+        <v>0.08777288732929352</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03623229569535506</v>
+        <v>0.03509705311313321</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1538990182.798003</v>
+        <v>2201429364.875455</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1358447818496822</v>
+        <v>0.118063187558685</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03562688927835361</v>
+        <v>0.03204749222613778</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4117684314.618819</v>
+        <v>3888264907.337902</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1213684391857173</v>
+        <v>0.176052581314098</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02005384169397991</v>
+        <v>0.02298505899808145</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2982299415.053996</v>
+        <v>3795436071.213841</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1034967695559203</v>
+        <v>0.1202640337025158</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02489848750300776</v>
+        <v>0.02391594400372021</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2139293553.70066</v>
+        <v>3433781684.174238</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1354617969280287</v>
+        <v>0.1457567793829353</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02593199946809271</v>
+        <v>0.02770475773340527</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3704802688.832583</v>
+        <v>4014603711.273708</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1787334492541063</v>
+        <v>0.1693351771462018</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0271329533476637</v>
+        <v>0.02526402167269171</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3253234772.860061</v>
+        <v>3361838102.253021</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1669282373882262</v>
+        <v>0.1486677578828108</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0493070209380076</v>
+        <v>0.04950214312221751</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_409.xlsx
+++ b/output/fit_clients/fit_round_409.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1575091835.476811</v>
+        <v>2205802946.647458</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07900287323689952</v>
+        <v>0.1119147569231815</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03423847939365575</v>
+        <v>0.03260867886060995</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2189863591.635762</v>
+        <v>1761442300.819151</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1724026309257728</v>
+        <v>0.167383766476771</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04269108591972324</v>
+        <v>0.03866358115107703</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4252946214.133132</v>
+        <v>3545793176.04644</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1227467173387295</v>
+        <v>0.1376524468213816</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02438986935424867</v>
+        <v>0.03121025462103846</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>208</v>
+      </c>
+      <c r="J4" t="n">
+        <v>408</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33.14933970448341</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3406586471.272761</v>
+        <v>4199852677.487094</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1094843166473283</v>
+        <v>0.09311169995466373</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03906061494045585</v>
+        <v>0.04969179898671908</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>166</v>
+      </c>
+      <c r="J5" t="n">
+        <v>409</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2683222561.256762</v>
+        <v>1823903300.154962</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1410203846926668</v>
+        <v>0.1344080529875671</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03794006519010244</v>
+        <v>0.05115625344210963</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2844681843.814891</v>
+        <v>2018172444.679361</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08092318650289797</v>
+        <v>0.0851865708177502</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03548759266649896</v>
+        <v>0.04598744667275334</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2487990318.067009</v>
+        <v>3731815291.748756</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1442222180740392</v>
+        <v>0.2130513107564203</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0215159923550341</v>
+        <v>0.02173798273865705</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>111</v>
+      </c>
+      <c r="J8" t="n">
+        <v>409</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1746722069.355757</v>
+        <v>2293411274.824463</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1659709466758477</v>
+        <v>0.1806262055127373</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02707567689885331</v>
+        <v>0.03480049472394381</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5590371056.857046</v>
+        <v>4314673378.82137</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1761165501836672</v>
+        <v>0.1505339546840669</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03572265711572337</v>
+        <v>0.03601029287439603</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>329</v>
+      </c>
+      <c r="J10" t="n">
+        <v>408</v>
+      </c>
+      <c r="K10" t="n">
+        <v>44.64356116387862</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4128265780.085524</v>
+        <v>2979114405.224655</v>
       </c>
       <c r="F11" t="n">
-        <v>0.131243974408841</v>
+        <v>0.1400888466840628</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04488968489920373</v>
+        <v>0.03254265667900594</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>170</v>
+      </c>
+      <c r="J11" t="n">
+        <v>408</v>
+      </c>
+      <c r="K11" t="n">
+        <v>28.56814803381352</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2618101041.372329</v>
+        <v>2373347119.942834</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1783176952535557</v>
+        <v>0.1561076842378168</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05288714228854814</v>
+        <v>0.03790307954460602</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4327719646.964862</v>
+        <v>4674659392.836821</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06773635305486281</v>
+        <v>0.07829105755009225</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02916562607398467</v>
+        <v>0.02513041995888198</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>213</v>
+      </c>
+      <c r="J13" t="n">
+        <v>409</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3708237343.658412</v>
+        <v>3577320417.343697</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1249979692872766</v>
+        <v>0.1231421000844743</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03881773345482535</v>
+        <v>0.04356205933581186</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>82</v>
+      </c>
+      <c r="J14" t="n">
+        <v>401</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1630871592.07452</v>
+        <v>1266731948.475619</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09551347553784201</v>
+        <v>0.1052207826112122</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03874590342080603</v>
+        <v>0.03976750421546257</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2484172156.955579</v>
+        <v>2155990093.721727</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08472389343682152</v>
+        <v>0.07774999299875662</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04511489772546919</v>
+        <v>0.05021025529874634</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3332177636.615119</v>
+        <v>4230650924.998135</v>
       </c>
       <c r="F17" t="n">
-        <v>0.160844360235062</v>
+        <v>0.1477820208889492</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04799818314930571</v>
+        <v>0.04394525258763008</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>198</v>
+      </c>
+      <c r="J17" t="n">
+        <v>408</v>
+      </c>
+      <c r="K17" t="n">
+        <v>44.07501655071066</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3149846099.723143</v>
+        <v>3244209613.30015</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1458622305477433</v>
+        <v>0.1772553885100338</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02569834781444178</v>
+        <v>0.02887466441782932</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>103</v>
+      </c>
+      <c r="J18" t="n">
+        <v>406</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>933340839.2312363</v>
+        <v>961313126.6551322</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1228472694434933</v>
+        <v>0.1727794959540837</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02702478296418121</v>
+        <v>0.01827477870441565</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2461987891.76108</v>
+        <v>2364709667.520945</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1290714041220697</v>
+        <v>0.1196188078471239</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03153411018441245</v>
+        <v>0.02598943900528902</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2413379825.111613</v>
+        <v>2293946884.37601</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07855855147076737</v>
+        <v>0.0782950159940559</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02916833298863575</v>
+        <v>0.04601793873665859</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2738399208.09348</v>
+        <v>3306101023.076207</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1035049002961433</v>
+        <v>0.1347695964509445</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05123297256012178</v>
+        <v>0.04630863217566734</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>114</v>
+      </c>
+      <c r="J22" t="n">
+        <v>407</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1168944050.957068</v>
+        <v>1422329628.518891</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1741889495181947</v>
+        <v>0.1177167633188007</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05403679660997036</v>
+        <v>0.04165973936367518</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2985294841.752657</v>
+        <v>3222546554.40408</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1061823108821039</v>
+        <v>0.1431391248457888</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02654031704837669</v>
+        <v>0.02912142698977221</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>128</v>
+      </c>
+      <c r="J24" t="n">
+        <v>406</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1302798047.581884</v>
+        <v>1331392725.988748</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1129570878571508</v>
+        <v>0.07942904298114649</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02671710789677704</v>
+        <v>0.02765075641211027</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1297768803.000249</v>
+        <v>1178284921.263631</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1127863896557886</v>
+        <v>0.1053418100463439</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03123466128830477</v>
+        <v>0.03364531666024454</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3536910698.308133</v>
+        <v>4539524716.787979</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1190951258810074</v>
+        <v>0.110638972681223</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0258424834835573</v>
+        <v>0.02607191445890545</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>172</v>
+      </c>
+      <c r="J27" t="n">
+        <v>409</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2777219838.859402</v>
+        <v>3891083760.795369</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1280945541967644</v>
+        <v>0.146897038016634</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03206209381267348</v>
+        <v>0.03283286634741144</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>99</v>
+      </c>
+      <c r="J28" t="n">
+        <v>409</v>
+      </c>
+      <c r="K28" t="n">
+        <v>56.37164750852138</v>
       </c>
     </row>
     <row r="29">
@@ -1242,17 +1456,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4030035198.984389</v>
+        <v>4047111949.159544</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1435115131953222</v>
+        <v>0.133122615872496</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03733099276166574</v>
+        <v>0.0341043706389543</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>344</v>
+      </c>
+      <c r="J29" t="n">
+        <v>409</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1525495811.480155</v>
+        <v>2108084831.079263</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1319671330419641</v>
+        <v>0.09052402519370119</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02905406272625759</v>
+        <v>0.02728305660959151</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1012014537.832145</v>
+        <v>1398296973.424505</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07406160077379009</v>
+        <v>0.1084913143301039</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03834530524940261</v>
+        <v>0.04072594931912133</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1220017724.41876</v>
+        <v>1429141188.383548</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09809882241483793</v>
+        <v>0.08115021501339795</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02385120842318585</v>
+        <v>0.02682135134360666</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2272112915.285055</v>
+        <v>2418715099.609616</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1984414033869608</v>
+        <v>0.1983835122048703</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0369242625665596</v>
+        <v>0.03861019098366135</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>970553455.4555305</v>
+        <v>1545202068.108035</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0763518825172232</v>
+        <v>0.1122908082164334</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01796913803013087</v>
+        <v>0.01825730265416321</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1009694773.093018</v>
+        <v>1178614562.079585</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08110796872800485</v>
+        <v>0.0807753913470164</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03918647010672902</v>
+        <v>0.03840645851777189</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1978510527.28948</v>
+        <v>2015420629.293004</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1734240853995066</v>
+        <v>0.1624226886279605</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01801592668584392</v>
+        <v>0.02023845528863029</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2072834983.4785</v>
+        <v>2463816184.37821</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1076825643418251</v>
+        <v>0.08860575759216301</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02586935327302601</v>
+        <v>0.03994678278095282</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1419706734.953795</v>
+        <v>1572557122.723977</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1118059505941356</v>
+        <v>0.08801343626199086</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03983777993048238</v>
+        <v>0.03766535990119484</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2201628392.518837</v>
+        <v>1530059891.166143</v>
       </c>
       <c r="F39" t="n">
-        <v>0.179209725916762</v>
+        <v>0.1658981873167395</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02629375834783357</v>
+        <v>0.02872110323287301</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1333491275.257015</v>
+        <v>1473040819.679943</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1188288778089186</v>
+        <v>0.1521404705727079</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05253105452220821</v>
+        <v>0.03757672475207539</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2554822936.917095</v>
+        <v>2367637929.851943</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1402280313128907</v>
+        <v>0.130968806692154</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03215046704280864</v>
+        <v>0.03762139407740701</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1911,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2767038421.85732</v>
+        <v>4034897832.847929</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09618915432086919</v>
+        <v>0.08228517201914762</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04182585628852196</v>
+        <v>0.03522234666762467</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>176</v>
+      </c>
+      <c r="J42" t="n">
+        <v>409</v>
+      </c>
+      <c r="K42" t="n">
+        <v>55.73656684001085</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2629875926.098774</v>
+        <v>2378406953.283566</v>
       </c>
       <c r="F43" t="n">
-        <v>0.202405549019955</v>
+        <v>0.1508425656702855</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01726855145221242</v>
+        <v>0.01901365359330008</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1915035396.853194</v>
+        <v>2184925559.635979</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08549761502720764</v>
+        <v>0.09795914286505529</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02632871296436583</v>
+        <v>0.02336341901164035</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2369678297.284987</v>
+        <v>2435880105.342494</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1471998738770302</v>
+        <v>0.1271600111601</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04817761385249068</v>
+        <v>0.05214093261155392</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3811404386.353009</v>
+        <v>5367023312.534013</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1197564230077977</v>
+        <v>0.1669904626678575</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05515010782031788</v>
+        <v>0.05244865987289889</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>246</v>
+      </c>
+      <c r="J46" t="n">
+        <v>408</v>
+      </c>
+      <c r="K46" t="n">
+        <v>42.28842761514279</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4542733870.198241</v>
+        <v>3367787673.487669</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1707236082630245</v>
+        <v>0.2025184964641968</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05549485177390601</v>
+        <v>0.05629644641922464</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>184</v>
+      </c>
+      <c r="J47" t="n">
+        <v>408</v>
+      </c>
+      <c r="K47" t="n">
+        <v>28.62259895433667</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3873261311.770846</v>
+        <v>4516478765.742458</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07002223788026427</v>
+        <v>0.06789207321183627</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03061724585283016</v>
+        <v>0.02988256744778937</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>211</v>
+      </c>
+      <c r="J48" t="n">
+        <v>408</v>
+      </c>
+      <c r="K48" t="n">
+        <v>45.83027199273752</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1300587138.735307</v>
+        <v>1385517537.524619</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1349918624206889</v>
+        <v>0.1273733708196068</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02922123888729994</v>
+        <v>0.04055557100033072</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4108739511.581882</v>
+        <v>3774278415.782762</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1649004650257054</v>
+        <v>0.1409666778846677</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03552722049127728</v>
+        <v>0.04328752349673787</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>141</v>
+      </c>
+      <c r="J50" t="n">
+        <v>409</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1289788792.448504</v>
+        <v>1518322127.276661</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1347234253880116</v>
+        <v>0.140916267912928</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04012595973496503</v>
+        <v>0.04783013624800034</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2269,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3221425069.84875</v>
+        <v>5256389825.47174</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1024822070015613</v>
+        <v>0.1212368539409964</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0579970385862418</v>
+        <v>0.05918084441502909</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>237</v>
+      </c>
+      <c r="J52" t="n">
+        <v>408</v>
+      </c>
+      <c r="K52" t="n">
+        <v>44.66585900873869</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2300,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2582589042.950194</v>
+        <v>3348018518.381357</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2000542260685133</v>
+        <v>0.1694056636812252</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0292667086485833</v>
+        <v>0.02248970636522462</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>57</v>
+      </c>
+      <c r="J53" t="n">
+        <v>409</v>
+      </c>
+      <c r="K53" t="n">
+        <v>47.94854391200178</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4446881355.423985</v>
+        <v>4728866195.89453</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1342585291549558</v>
+        <v>0.1544072696529178</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04859897726232332</v>
+        <v>0.03477743297074921</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>219</v>
+      </c>
+      <c r="J54" t="n">
+        <v>408</v>
+      </c>
+      <c r="K54" t="n">
+        <v>42.40231783610619</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2374,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3250023464.198681</v>
+        <v>4771124774.764182</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2148661990782866</v>
+        <v>0.1924097446529707</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02606677605935526</v>
+        <v>0.02505064925878584</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>201</v>
+      </c>
+      <c r="J55" t="n">
+        <v>409</v>
+      </c>
+      <c r="K55" t="n">
+        <v>45.84566663524033</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1666349949.989343</v>
+        <v>1238211518.873024</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1399290757871119</v>
+        <v>0.09980640681226773</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05267772774895087</v>
+        <v>0.03957482087405977</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2446,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4243402275.195529</v>
+        <v>4374510720.901978</v>
       </c>
       <c r="F57" t="n">
-        <v>0.153452463314921</v>
+        <v>0.1408980367204434</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01668695003390871</v>
+        <v>0.01923446723811588</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>176</v>
+      </c>
+      <c r="J57" t="n">
+        <v>409</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1322096920.364983</v>
+        <v>1205706341.516187</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1774883144381321</v>
+        <v>0.152670792784235</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03035945180264091</v>
+        <v>0.0260971473726548</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2516,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5010415847.723007</v>
+        <v>3317633399.703746</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1177812554470356</v>
+        <v>0.08959862404544923</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04899952635708368</v>
+        <v>0.03067473054349013</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>200</v>
+      </c>
+      <c r="J59" t="n">
+        <v>407</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2864600831.335701</v>
+        <v>2393777824.252687</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1654968952306002</v>
+        <v>0.135507327030065</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0251721935606409</v>
+        <v>0.02652596037040181</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>75</v>
+      </c>
+      <c r="J60" t="n">
+        <v>403</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2277847455.167995</v>
+        <v>2576160419.939738</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1586102463917726</v>
+        <v>0.1408930442300234</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03240246650703447</v>
+        <v>0.02349818395542088</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1747365575.319677</v>
+        <v>1889272662.300546</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1939973669538204</v>
+        <v>0.1820942710867223</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03405436869015135</v>
+        <v>0.03648048772142187</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3913460384.680728</v>
+        <v>4990980452.347334</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1058640488515038</v>
+        <v>0.08215362825618781</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04413996819414048</v>
+        <v>0.02940135883472132</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>204</v>
+      </c>
+      <c r="J63" t="n">
+        <v>409</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5264172655.177734</v>
+        <v>5458824792.920384</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1564028443647882</v>
+        <v>0.1255981024521138</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03486242442473741</v>
+        <v>0.03203667509951376</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>204</v>
+      </c>
+      <c r="J64" t="n">
+        <v>409</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2732,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3952842653.489655</v>
+        <v>5688484868.734118</v>
       </c>
       <c r="F65" t="n">
-        <v>0.114486217983464</v>
+        <v>0.1670878489302762</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02980076170182676</v>
+        <v>0.02461548233387481</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>301</v>
+      </c>
+      <c r="J65" t="n">
+        <v>409</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4359492053.863216</v>
+        <v>5716318648.645401</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1592083485868667</v>
+        <v>0.159547380542655</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04096096766795168</v>
+        <v>0.0424671045248588</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>202</v>
+      </c>
+      <c r="J66" t="n">
+        <v>408</v>
+      </c>
+      <c r="K66" t="n">
+        <v>44.48949713837482</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2177520668.906997</v>
+        <v>3442787332.705199</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08538040297824792</v>
+        <v>0.07609599820772292</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03281454222533531</v>
+        <v>0.04888627399122279</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4199986533.287121</v>
+        <v>4044100503.525747</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1104833530661463</v>
+        <v>0.1433850388859783</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04902037268191759</v>
+        <v>0.03199122396723453</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>223</v>
+      </c>
+      <c r="J68" t="n">
+        <v>408</v>
+      </c>
+      <c r="K68" t="n">
+        <v>44.40266353774599</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1993269380.2058</v>
+        <v>1857369378.172067</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1109649646712281</v>
+        <v>0.1641573426832926</v>
       </c>
       <c r="G69" t="n">
-        <v>0.045647517593339</v>
+        <v>0.04950437075749329</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3691609853.549022</v>
+        <v>3626019707.438956</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09787769403064554</v>
+        <v>0.08547758379033379</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0367087782734539</v>
+        <v>0.03363940879508871</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5231523691.999574</v>
+        <v>5346614420.62037</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1794761943171465</v>
+        <v>0.1376525991265447</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03150221508656437</v>
+        <v>0.02496263328663144</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>288</v>
+      </c>
+      <c r="J71" t="n">
+        <v>409</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1606452960.076165</v>
+        <v>1571230671.318019</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07768550148436605</v>
+        <v>0.1042177149396686</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03778763425215776</v>
+        <v>0.03699944359217131</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3470972609.060876</v>
+        <v>3123523510.012343</v>
       </c>
       <c r="F73" t="n">
-        <v>0.107021571260506</v>
+        <v>0.0765647627284088</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04936089584569135</v>
+        <v>0.03823379386403185</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3593470074.185151</v>
+        <v>3648677131.800605</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1497345048332679</v>
+        <v>0.1564668603494599</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02638726773687233</v>
+        <v>0.03151107287515101</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>115</v>
+      </c>
+      <c r="J74" t="n">
+        <v>409</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2044407425.735276</v>
+        <v>1743630489.092355</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1503034470675145</v>
+        <v>0.164353853437875</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03389293543034718</v>
+        <v>0.03768784171091907</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3529419803.43173</v>
+        <v>4530888423.723044</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1095881141349873</v>
+        <v>0.1154925589071975</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0221029867748946</v>
+        <v>0.03061120194493514</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>194</v>
+      </c>
+      <c r="J76" t="n">
+        <v>408</v>
+      </c>
+      <c r="K76" t="n">
+        <v>44.16471836889697</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1568384860.083284</v>
+        <v>1824317286.475408</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1171633286200499</v>
+        <v>0.14689828382714</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02248199923011512</v>
+        <v>0.02913902465884818</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4291061093.188723</v>
+        <v>3643462500.581009</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08991381531432814</v>
+        <v>0.1022617055571914</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04552402184682994</v>
+        <v>0.0392199664259844</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>204</v>
+      </c>
+      <c r="J78" t="n">
+        <v>408</v>
+      </c>
+      <c r="K78" t="n">
+        <v>38.93640366427396</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1526010726.22958</v>
+        <v>1436052674.720297</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1573651628156089</v>
+        <v>0.140704000852036</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02675415836144042</v>
+        <v>0.02633504114554434</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3265,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3774180666.895328</v>
+        <v>4082840955.818123</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07760219572621981</v>
+        <v>0.09068351063348054</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02647214616288431</v>
+        <v>0.02652387128052553</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>200</v>
+      </c>
+      <c r="J80" t="n">
+        <v>408</v>
+      </c>
+      <c r="K80" t="n">
+        <v>37.31442152300282</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3996301619.279105</v>
+        <v>3529566479.999929</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09649297080159507</v>
+        <v>0.0991363119231244</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0224976093111988</v>
+        <v>0.0275870850825105</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>190</v>
+      </c>
+      <c r="J81" t="n">
+        <v>407</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4644460808.233451</v>
+        <v>4056193861.709661</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1953945304872776</v>
+        <v>0.2086892973197874</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02192097568567437</v>
+        <v>0.01889489420197833</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>279</v>
+      </c>
+      <c r="J82" t="n">
+        <v>408</v>
+      </c>
+      <c r="K82" t="n">
+        <v>43.04846647065345</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2111359508.481721</v>
+        <v>2069275670.619482</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1577047730249509</v>
+        <v>0.1333255747074925</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03758064242760931</v>
+        <v>0.03717200662134186</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1993806129.950927</v>
+        <v>1578092158.941437</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0777421849872148</v>
+        <v>0.08257870624634732</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04819099548300051</v>
+        <v>0.04060231347876164</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3459401010.090245</v>
+        <v>2254807173.76855</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1694280860246447</v>
+        <v>0.1320911925626817</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05085790517873312</v>
+        <v>0.0467922491878988</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2037562506.522771</v>
+        <v>1843988350.876794</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1574712860793042</v>
+        <v>0.1109816333106867</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02413495770417538</v>
+        <v>0.02314649561233436</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>943460359.8082209</v>
+        <v>1026992059.591671</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1755697549775414</v>
+        <v>0.154614106691624</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03664766936388596</v>
+        <v>0.03645490069464248</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3518173445.729846</v>
+        <v>3662405650.404931</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1665914674670172</v>
+        <v>0.1261876993379533</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03003318030837249</v>
+        <v>0.03994352484597973</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>52</v>
+      </c>
+      <c r="J88" t="n">
+        <v>409</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3194425625.571187</v>
+        <v>2717263746.527178</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1019059550432552</v>
+        <v>0.1575655527103616</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03423836400696195</v>
+        <v>0.03631146149943547</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1587203578.982075</v>
+        <v>1936333804.620723</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09152861431604481</v>
+        <v>0.1211660141788851</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03652389731250215</v>
+        <v>0.04640920810275466</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1620377907.409843</v>
+        <v>2047524480.061465</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1222486734333957</v>
+        <v>0.1747191669830938</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03741175672401998</v>
+        <v>0.06047765486647969</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2556274758.291317</v>
+        <v>2192782151.240041</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1010784096537495</v>
+        <v>0.1024260789844657</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03711786386663766</v>
+        <v>0.04517613847357085</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4198255550.424191</v>
+        <v>3904264718.246501</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1166635632561109</v>
+        <v>0.1384089901524322</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04928397011728814</v>
+        <v>0.03498668810663854</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>195</v>
+      </c>
+      <c r="J93" t="n">
+        <v>409</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2470927527.340901</v>
+        <v>2415289139.952912</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1413598229206273</v>
+        <v>0.1449963319388353</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03485770243198098</v>
+        <v>0.02899400446783948</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2785686458.686955</v>
+        <v>3086398884.690654</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08777288732929352</v>
+        <v>0.08330710312998998</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03509705311313321</v>
+        <v>0.04513778776842401</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2201429364.875455</v>
+        <v>1899428332.63401</v>
       </c>
       <c r="F96" t="n">
-        <v>0.118063187558685</v>
+        <v>0.1026371936231597</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03204749222613778</v>
+        <v>0.04094575053854896</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3888264907.337902</v>
+        <v>4896823952.699052</v>
       </c>
       <c r="F97" t="n">
-        <v>0.176052581314098</v>
+        <v>0.1116796461136314</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02298505899808145</v>
+        <v>0.02157900575668006</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>213</v>
+      </c>
+      <c r="J97" t="n">
+        <v>409</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3795436071.213841</v>
+        <v>3114963151.330636</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1202640337025158</v>
+        <v>0.08426216913758676</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02391594400372021</v>
+        <v>0.02103688760478405</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>106</v>
+      </c>
+      <c r="J98" t="n">
+        <v>404</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3433781684.174238</v>
+        <v>2980401907.205456</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1457567793829353</v>
+        <v>0.1014354399663407</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02770475773340527</v>
+        <v>0.03531664753861708</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4014603711.273708</v>
+        <v>4295349116.64096</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1693351771462018</v>
+        <v>0.1241970123646502</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02526402167269171</v>
+        <v>0.02011630934202409</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>190</v>
+      </c>
+      <c r="J100" t="n">
+        <v>409</v>
+      </c>
+      <c r="K100" t="n">
+        <v>46.19034355040927</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3361838102.253021</v>
+        <v>2530772537.941224</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1486677578828108</v>
+        <v>0.1855085046749002</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04950214312221751</v>
+        <v>0.05173078495203988</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
